--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_499__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_499__Reeval_LHS_Modell_1.2.xlsx
@@ -5885,7 +5885,7 @@
                   <c:v>66.09110260009766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.0372314453125</c:v>
+                  <c:v>49.03723526000977</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>66.28139495849609</c:v>
@@ -5903,13 +5903,13 @@
                   <c:v>61.8056755065918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.11963272094727</c:v>
+                  <c:v>39.11962890625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.53710174560547</c:v>
+                  <c:v>55.5370979309082</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.49672317504883</c:v>
+                  <c:v>41.49671936035156</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>31.87172698974609</c:v>
@@ -5918,7 +5918,7 @@
                   <c:v>62.48976135253906</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.62828063964844</c:v>
+                  <c:v>40.62827682495117</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>39.99681854248047</c:v>
@@ -5933,7 +5933,7 @@
                   <c:v>52.74843597412109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.82884979248047</c:v>
+                  <c:v>41.8288459777832</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>52.66796112060547</c:v>
@@ -5942,7 +5942,7 @@
                   <c:v>55.85319519042969</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.48738479614258</c:v>
+                  <c:v>44.48738098144531</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>54.9461784362793</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>58.95713424682617</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33.81490707397461</c:v>
+                  <c:v>33.81491088867188</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>59.76145935058594</c:v>
@@ -5993,13 +5993,13 @@
                   <c:v>60.40107727050781</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32.03556823730469</c:v>
+                  <c:v>32.03556442260742</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>54.47113037109375</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78.60208892822266</c:v>
+                  <c:v>78.60209655761719</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>64.47191619873047</c:v>
@@ -6008,13 +6008,13 @@
                   <c:v>40.91622161865234</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.84698486328125</c:v>
+                  <c:v>41.84697723388672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53.81902694702148</c:v>
+                  <c:v>53.81903457641602</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.07830429077148</c:v>
+                  <c:v>41.07830047607422</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>63.12614822387695</c:v>
@@ -6026,7 +6026,7 @@
                   <c:v>44.45402145385742</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>48.30409240722656</c:v>
+                  <c:v>48.3040885925293</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>57.21282196044922</c:v>
@@ -6041,19 +6041,19 @@
                   <c:v>56.47004318237305</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31.5884895324707</c:v>
+                  <c:v>31.58848571777344</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>62.99322128295898</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>69.81552886962891</c:v>
+                  <c:v>69.81552124023438</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>44.49878692626953</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40.98280334472656</c:v>
+                  <c:v>40.9827995300293</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>59.20438003540039</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>56.57946014404297</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>48.78632354736328</c:v>
+                  <c:v>48.78631973266602</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>50.64020538330078</c:v>
@@ -6095,22 +6095,22 @@
                   <c:v>54.53919219970703</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>59.92654037475586</c:v>
+                  <c:v>59.92654800415039</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>57.67448425292969</c:v>
+                  <c:v>57.67449188232422</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>36.69645309448242</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>65.36357116699219</c:v>
+                  <c:v>65.36357879638672</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>38.59446334838867</c:v>
+                  <c:v>38.59445571899414</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.00453567504883</c:v>
+                  <c:v>53.00453948974609</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>39.04158401489258</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>41.71438980102539</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>81.38382720947266</c:v>
+                  <c:v>81.38383483886719</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>57.72976303100586</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>63.86917877197266</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>46.45714569091797</c:v>
+                  <c:v>46.4571418762207</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>50.16351699829102</c:v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>49.0372314453125</v>
+        <v>49.03723526000977</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>39.11963272094727</v>
+        <v>39.11962890625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>98.44929999999999</v>
       </c>
       <c r="F13">
-        <v>55.53710174560547</v>
+        <v>55.5370979309082</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>41.49672317504883</v>
+        <v>41.49671936035156</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>40.62828063964844</v>
+        <v>40.62827682495117</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>41.82884979248047</v>
+        <v>41.8288459777832</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>44.48738479614258</v>
+        <v>44.48738098144531</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>33.81490707397461</v>
+        <v>33.81491088867188</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>32.03556823730469</v>
+        <v>32.03556442260742</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>78.60208892822266</v>
+        <v>78.60209655761719</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>41.84698486328125</v>
+        <v>41.84697723388672</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>53.81902694702148</v>
+        <v>53.81903457641602</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>41.07830429077148</v>
+        <v>41.07830047607422</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>48.30409240722656</v>
+        <v>48.3040885925293</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>31.5884895324707</v>
+        <v>31.58848571777344</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>69.81552886962891</v>
+        <v>69.81552124023438</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>40.98280334472656</v>
+        <v>40.9827995300293</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>48.78632354736328</v>
+        <v>48.78631973266602</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>59.92654037475586</v>
+        <v>59.92654800415039</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>57.67448425292969</v>
+        <v>57.67449188232422</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>65.36357116699219</v>
+        <v>65.36357879638672</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>38.59446334838867</v>
+        <v>38.59445571899414</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>53.00453567504883</v>
+        <v>53.00453948974609</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>81.38382720947266</v>
+        <v>81.38383483886719</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>46.45714569091797</v>
+        <v>46.4571418762207</v>
       </c>
     </row>
     <row r="97" spans="1:6">
